--- a/data.xlsx
+++ b/data.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://santos-my.sharepoint.com/personal/burmr_santos_com/Documents/Work in progress/ML Learning tidbits/Fitting Noisy Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{ABCD7190-CD87-4151-B6A7-7F8D4BBF8DC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3C9EC032-B13E-48D9-BA01-E72A224BF0F2}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{ABCD7190-CD87-4151-B6A7-7F8D4BBF8DC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{19C603E8-CB7A-4EE3-A4EC-0570A402B80F}"/>
   <bookViews>
     <workbookView xWindow="6120" yWindow="1875" windowWidth="44235" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Roma DST Perm and Pressure 2012" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Roma DST Perm and Pressure 2012'!$A$1:$B$238</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$B$238</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -889,7 +889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B238"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -2806,15 +2806,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010098497C0BDB29574BAD6311EA27BA3A4A" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b24d838271d9b5f816ec97c7a3781349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="21ac37e1-ae52-4def-892c-d08a8a65f512" xmlns:ns4="d42b05ad-7af4-4d3d-9a58-009a501d6ea3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fd6d29c883ccc1f018d7b2593bdda032" ns3:_="" ns4:_="">
     <xsd:import namespace="21ac37e1-ae52-4def-892c-d08a8a65f512"/>
@@ -3043,6 +3034,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -3050,14 +3050,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{243D29FA-1CFE-421A-9A74-D9309153D2C7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB98A97-CCB2-44AB-BED7-3E913F513B4C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3076,6 +3068,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{243D29FA-1CFE-421A-9A74-D9309153D2C7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3A61489-053A-46BE-BCA1-D59425D608C4}">
   <ds:schemaRefs>
